--- a/dataSet/ubuntu_linux_MGTV.xlsx
+++ b/dataSet/ubuntu_linux_MGTV.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F655374E-4A0F-4A5A-A24F-B50636B89FAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +16,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -57,8 +54,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -68,6 +66,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -116,7 +117,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -149,9 +150,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,6 +202,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,202 +394,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:CB1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-      <c r="H1">
-        <v>5</v>
-      </c>
-      <c r="I1">
-        <v>6</v>
+    <row r="1" spans="1:80" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>1.06536106424255E-4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>3.4578701416982901E-4</v>
+      </c>
+      <c r="C1" s="1">
+        <v>9.9529752267622394E-4</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2.5760005096646002E-3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>6.0690742006993398E-3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1.3158653260061701E-2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2.65096409832727E-2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>5.0050978503233999E-2</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8.9233096117900104E-2</v>
       </c>
       <c r="J1">
-        <v>6</v>
+        <v>0.15123602271258799</v>
       </c>
       <c r="K1">
-        <v>7</v>
+        <v>0.24511885174390999</v>
       </c>
       <c r="L1">
-        <v>7</v>
+        <v>0.38191711224721803</v>
       </c>
       <c r="M1">
-        <v>9</v>
+        <v>0.57470752700371297</v>
       </c>
       <c r="N1">
-        <v>9</v>
+        <v>0.83866693345774901</v>
       </c>
       <c r="O1">
-        <v>10</v>
+        <v>1.19115325212045</v>
       </c>
       <c r="P1">
-        <v>10</v>
+        <v>1.6518323992053301</v>
       </c>
       <c r="Q1">
-        <v>10</v>
+        <v>2.2428677581149001</v>
       </c>
       <c r="R1">
-        <v>10</v>
+        <v>2.9891799467831701</v>
       </c>
       <c r="S1">
-        <v>11</v>
+        <v>3.9187752387098902</v>
       </c>
       <c r="T1">
-        <v>11</v>
+        <v>5.0631314350541397</v>
       </c>
       <c r="U1">
-        <v>11</v>
+        <v>6.4576198532734397</v>
       </c>
       <c r="V1">
-        <v>11</v>
+        <v>8.1419304754200095</v>
       </c>
       <c r="W1">
-        <v>12</v>
+        <v>10.1604529643717</v>
       </c>
       <c r="X1">
-        <v>14</v>
+        <v>12.562547940513101</v>
       </c>
       <c r="Y1">
-        <v>15</v>
+        <v>15.402619628106301</v>
       </c>
       <c r="Z1">
-        <v>16</v>
+        <v>18.739872510658099</v>
       </c>
       <c r="AA1">
-        <v>17</v>
+        <v>22.637602277355001</v>
       </c>
       <c r="AB1">
-        <v>26</v>
+        <v>27.1618390248194</v>
       </c>
       <c r="AC1">
-        <v>35</v>
+        <v>32.379136415369302</v>
       </c>
       <c r="AD1">
-        <v>47</v>
+        <v>38.353297948611299</v>
       </c>
       <c r="AE1">
-        <v>53</v>
+        <v>45.1408709154124</v>
       </c>
       <c r="AF1">
-        <v>56</v>
+        <v>52.785345612721997</v>
       </c>
       <c r="AG1">
-        <v>66</v>
+        <v>61.310197550227798</v>
       </c>
       <c r="AH1">
-        <v>70</v>
+        <v>70.711216946875595</v>
       </c>
       <c r="AI1">
-        <v>79</v>
+        <v>80.948964392427698</v>
       </c>
       <c r="AJ1">
-        <v>88</v>
+        <v>91.942602114416403</v>
       </c>
       <c r="AK1">
-        <v>107</v>
+        <v>103.56663992541399</v>
       </c>
       <c r="AL1">
-        <v>117</v>
+        <v>115.65212167875799</v>
       </c>
       <c r="AM1">
-        <v>125</v>
+        <v>127.993302173825</v>
       </c>
       <c r="AN1">
-        <v>145</v>
+        <v>140.359893087118</v>
       </c>
       <c r="AO1">
-        <v>184</v>
+        <v>152.51367331111501</v>
       </c>
       <c r="AP1">
-        <v>187</v>
+        <v>164.227059272286</v>
       </c>
       <c r="AQ1">
-        <v>191</v>
+        <v>175.300576301608</v>
       </c>
       <c r="AR1">
-        <v>196</v>
+        <v>185.57635970358601</v>
       </c>
       <c r="AS1">
-        <v>197</v>
+        <v>194.945800077039</v>
       </c>
       <c r="AT1">
-        <v>201</v>
+        <v>203.35085820286</v>
       </c>
       <c r="AU1">
-        <v>201</v>
+        <v>210.77990394191201</v>
       </c>
       <c r="AV1">
-        <v>208</v>
+        <v>217.25978923894701</v>
       </c>
       <c r="AW1">
-        <v>247</v>
+        <v>222.84611406819801</v>
       </c>
       <c r="AX1">
-        <v>247</v>
+        <v>227.613394261792</v>
       </c>
       <c r="AY1">
-        <v>247</v>
+        <v>231.646321332767</v>
       </c>
       <c r="AZ1">
-        <v>247</v>
+        <v>235.03274046667201</v>
       </c>
       <c r="BA1">
-        <v>247</v>
+        <v>237.85850932693199</v>
       </c>
       <c r="BB1">
-        <v>247</v>
+        <v>240.20409357445399</v>
       </c>
       <c r="BC1">
-        <v>247</v>
+        <v>242.14259759232601</v>
       </c>
       <c r="BD1">
-        <v>247</v>
+        <v>243.738882871035</v>
       </c>
       <c r="BE1">
-        <v>247</v>
+        <v>245.04944855577199</v>
       </c>
       <c r="BF1">
-        <v>247</v>
+        <v>246.122803325983</v>
       </c>
       <c r="BG1">
-        <v>247</v>
+        <v>247.00012129641999</v>
       </c>
       <c r="BH1">
-        <v>247</v>
+        <v>247.71603370185201</v>
       </c>
       <c r="BI1">
-        <v>247</v>
+        <v>248.29945694521501</v>
       </c>
       <c r="BJ1">
-        <v>247</v>
+        <v>248.77439488053</v>
       </c>
       <c r="BK1">
-        <v>247</v>
+        <v>249.16068001531201</v>
+      </c>
+      <c r="BL1">
+        <v>249.47463660245401</v>
+      </c>
+      <c r="BM1">
+        <v>249.729660417286</v>
+      </c>
+      <c r="BN1">
+        <v>249.93671720374101</v>
+      </c>
+      <c r="BO1">
+        <v>250.10476577867399</v>
+      </c>
+      <c r="BP1">
+        <v>250.24111369411801</v>
+      </c>
+      <c r="BQ1">
+        <v>250.35171395141899</v>
+      </c>
+      <c r="BR1">
+        <v>250.44141107334099</v>
+      </c>
+      <c r="BS1">
+        <v>250.51414422539901</v>
+      </c>
+      <c r="BT1">
+        <v>250.573114263104</v>
+      </c>
+      <c r="BU1">
+        <v>250.62092070752701</v>
+      </c>
+      <c r="BV1">
+        <v>250.659673798879</v>
+      </c>
+      <c r="BW1">
+        <v>250.691085990418</v>
+      </c>
+      <c r="BX1">
+        <v>250.71654654261201</v>
+      </c>
+      <c r="BY1">
+        <v>250.73718226579899</v>
+      </c>
+      <c r="BZ1">
+        <v>250.75390693559001</v>
+      </c>
+      <c r="CA1">
+        <v>250.76746146211099</v>
+      </c>
+      <c r="CB1">
+        <v>250.77844652280001</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -577,7 +665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
